--- a/SimulationStudyData/Model1/SimCase5_zsim_SimRun4.xlsx
+++ b/SimulationStudyData/Model1/SimCase5_zsim_SimRun4.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -363,12 +363,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -378,17 +378,17 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -398,7 +398,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -408,27 +408,27 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -438,27 +438,27 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -483,17 +483,17 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -503,12 +503,12 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -518,17 +518,17 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -538,7 +538,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -558,17 +558,17 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -578,7 +578,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -593,7 +593,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -603,7 +603,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -613,27 +613,27 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -648,22 +648,22 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -673,7 +673,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -688,7 +688,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -698,32 +698,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -733,17 +733,17 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -753,7 +753,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -768,12 +768,12 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -783,12 +783,12 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -798,7 +798,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -813,7 +813,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -823,12 +823,12 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -838,32 +838,32 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -873,7 +873,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -888,37 +888,37 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -928,12 +928,12 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -943,7 +943,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -973,12 +973,12 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -993,22 +993,22 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
@@ -1028,32 +1028,32 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1063,12 +1063,12 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -1078,12 +1078,12 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -1098,17 +1098,17 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1123,12 +1123,12 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -1143,7 +1143,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -1153,17 +1153,17 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -1173,7 +1173,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -1193,22 +1193,22 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -1218,7 +1218,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -1228,27 +1228,27 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -1258,17 +1258,17 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -1278,7 +1278,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -1288,27 +1288,27 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -1318,22 +1318,22 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -1343,262 +1343,12 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationStudyData/Model1/SimCase5_zsim_SimRun4.xlsx
+++ b/SimulationStudyData/Model1/SimCase5_zsim_SimRun4.xlsx
@@ -353,12 +353,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -368,12 +368,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -388,17 +388,17 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -413,12 +413,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -428,7 +428,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -438,7 +438,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -448,7 +448,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -458,7 +458,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -468,27 +468,27 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -498,7 +498,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -508,12 +508,12 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -528,7 +528,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -543,37 +543,37 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -583,22 +583,22 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -608,57 +608,57 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -668,7 +668,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -688,7 +688,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -698,12 +698,12 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -713,17 +713,17 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -733,17 +733,17 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -778,17 +778,17 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -808,27 +808,27 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -843,27 +843,27 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -873,12 +873,12 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -893,7 +893,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -903,12 +903,12 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -918,37 +918,37 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -958,12 +958,12 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -973,12 +973,12 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -993,17 +993,17 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -1033,27 +1033,27 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -1068,17 +1068,17 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -1088,12 +1088,12 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -1103,7 +1103,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1113,12 +1113,12 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1133,7 +1133,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -1143,17 +1143,17 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -1168,12 +1168,12 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -1193,7 +1193,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -1218,7 +1218,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -1263,17 +1263,17 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -1283,7 +1283,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -1293,62 +1293,312 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
